--- a/youlin requirement.xlsx
+++ b/youlin requirement.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipai\Documents\GitHub\Youlin\digital product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipai\Documents\GitHub\Youlin\digital product\publish\youlin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FF184A-3A78-48C8-9F96-83A1EAF69EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E8D878-46AC-454F-A138-37C6808A12B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报价清单" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报价清单!$B$2:$H$31</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>北京逅时代功能报价清单</t>
   </si>
@@ -73,24 +76,9 @@
     <t>主页风格设计</t>
   </si>
   <si>
-    <t>高保真设计效果实现
-●根据客户提供资料电子文档及专有图片素材，提炼特点的主要视觉元素
-●由优秀UI动态交互设计师依据业内经典风格而完成的美观页面及版式
-●设计师与客户通过电话详细沟通，详尽了解客户需求
-●用户按钮设计；
-●图标设计；</t>
-  </si>
-  <si>
     <t>整体功能UI设计</t>
   </si>
   <si>
-    <t>设计全套适合公司风格的微信公众号开发平台页面
-●个人中心页设计，
-●皮肤、
-●交互设计、
-●功能按钮设计等</t>
-  </si>
-  <si>
     <t>前台小计：</t>
   </si>
   <si>
@@ -109,168 +97,10 @@
     <t>开发费用</t>
   </si>
   <si>
-    <t>pc+公众号</t>
-  </si>
-  <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>导航：赛事中心，线上课程，线下课程，赛事咨询</t>
-  </si>
-  <si>
-    <t>1.轮播图
-2.赛事推荐，线上课程，线下课程，赛事动态，成人赛事推荐，合作伙伴，默认展开，显示4个</t>
-  </si>
-  <si>
     <t>注册</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>1.使用账号，密码登录
-2.密码找回，使用手机号验证码找回密码</t>
-  </si>
-  <si>
-    <t>赛事中心</t>
-  </si>
-  <si>
-    <t>1.展示多个竞赛以及训练营活动
-2.图片，简述，报名时间
-3.我要报名（可直接报名）
-4.报名成功后可查看赛事信息的详情
-5.个人报名，需补全自己的详细信息
-6.团队报名，可批量导入名单（pc）
-7.分类多条件搜索</t>
-  </si>
-  <si>
-    <t>点击详情，展示该活动的详细章程，以及报名方式，范围，时间（富文本）</t>
-  </si>
-  <si>
-    <t>线上课程</t>
-  </si>
-  <si>
-    <t>1.展示多个分类：精英特训，学霸英语，高考数学
-2.图片，标题，简述，价钱
-3.管理员可设置课程展示位置
-4.根据时间，浏览次数，进行排序推介
-5.分类多条件搜索</t>
-  </si>
-  <si>
-    <t>线下课程</t>
-  </si>
-  <si>
-    <t>在线课程详情页</t>
-  </si>
-  <si>
-    <t>1.课程图片，标题，价钱，课程介绍，课程目录，研发团队，周边商品
-2.立即购买，直接购买支付</t>
-  </si>
-  <si>
-    <t>赛事动态</t>
-  </si>
-  <si>
-    <t>1.标题，图片，简述，详情
-2.点击展开详情
-3.分类展示赛事动态</t>
-  </si>
-  <si>
-    <t>合作中心</t>
-  </si>
-  <si>
-    <t>1.寻求资金方
-2.寻求承办单位
-3.寻求赛事项目</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会员信息：邮箱，手机号，地址，学校
-</t>
-  </si>
-  <si>
-    <t>修改密码，输入手机号验证码</t>
-  </si>
-  <si>
-    <t>我的收藏，按照赛事更新时间排序，可删除收藏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进行中的赛事，购买的线上课程，购买的线下课程，已报名的赛事，已获得的证书
-</t>
-  </si>
-  <si>
-    <t>关于我们</t>
-  </si>
-  <si>
-    <t>1.介绍公司的详情，合作伙伴
-2.点击合作伙伴的logo，跳转合作伙伴的官网</t>
-  </si>
-  <si>
     <t>后台管理系统</t>
-  </si>
-  <si>
-    <t>赛事管理</t>
-  </si>
-  <si>
-    <t>1赛事的添加，删除，修改（机构添加需管理员审核，管理员添加无需审核）
-2.赛事分阶段，海选，初赛，复赛，半决赛，总决赛，需设置不同阶段的报名条件，报名费用
-3.需输入客服扣扣号
-4.赛事结果导入</t>
-  </si>
-  <si>
-    <t>线下课程管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.管理课程分类，新增，删除，修改（机构添加需管理员审核，管理员添加无需审核）
-2.课程管理 课程的发布，添加，修改，删除
-3.周边商品
-</t>
-  </si>
-  <si>
-    <t>线上课程管理</t>
-  </si>
-  <si>
-    <t>合作伙伴管理</t>
-  </si>
-  <si>
-    <t>设置合作伙伴的logo，跳转的官网链接</t>
-  </si>
-  <si>
-    <t>商品管理</t>
-  </si>
-  <si>
-    <t>商品添加，修改，删除，商品上下架需管理员审核</t>
-  </si>
-  <si>
-    <t>导航管理</t>
-  </si>
-  <si>
-    <t>管理员可设置导航是否显示</t>
-  </si>
-  <si>
-    <t>分类管理</t>
-  </si>
-  <si>
-    <t>管理员可设置分类的名称（多级联动，后台设置，不固定）</t>
-  </si>
-  <si>
-    <t>订单管理</t>
-  </si>
-  <si>
-    <t>查看用户购买课程订单</t>
-  </si>
-  <si>
-    <t>赛事报名管理</t>
-  </si>
-  <si>
-    <t>查看赛事的报名情况（机构查看自己发布赛事）</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>查看用户的信息</t>
   </si>
   <si>
     <t>费用合计</t>
@@ -300,12 +130,133 @@
 </t>
   </si>
   <si>
-    <t>1.个人注册：账号，邮箱，手机号码，出生日期，所在地，姓名
-2. 家庭XX</t>
+    <t>优临自提供</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>优临自提供</t>
+    <t>公众号+小程序</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>WX_APP 设计优临自提供
+控制台平台提供模板套用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯息流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>周报</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员设置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序 Event/公约 数据库显示/编辑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员管理 (标签唯一），群主转换</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号讯息流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动管理 课程的发布，添加，修改，删除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现页-活动建议</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项Must/Option</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动提醒, 事件瀑布流,（仅服务号）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event 事件留言， 后台支持增减修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>周报生成微服务， 小程序内显示
+打卡阅览登入统计
+周报互评留言</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员更新提醒</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理/群管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒管理</t>
+  </si>
+  <si>
+    <t>报告数据</t>
+  </si>
+  <si>
+    <t>搜索打卡任务，修改发布，添加，删除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看用户的信息
+用户阅览记录统计
+群管理，家庭整合</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>event , 周报 ， 活动 , family 瀑布流, 留言发布，添加，删除
+违规提醒 （红）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号提醒编辑 ，目标族群编辑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 个人注册（小程序分享）：账号，邮箱，手机号码，出生日期，所在地，姓名
+2. 扫码注册：二维码生成, 注册进群
+3. 小程序转发分享</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动说明指导， H5 页面 （可从服务号跳转）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动（服务号）, 打卡更新提醒</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>周报数据 （根据条件批量搜索导出）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +268,7 @@
     <numFmt numFmtId="176" formatCode="&quot;设计合计：¥&quot;#,##0;&quot;¥-&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="&quot;¥ &quot;#,##0&quot; &quot;;&quot;(¥ &quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -406,6 +357,40 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -445,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -712,21 +697,6 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
@@ -758,19 +728,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,11 +853,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,18 +1014,15 @@
     <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -986,121 +1032,178 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,10 +1230,22 @@
     <xf numFmtId="177" fontId="9" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,6 +1288,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,7 +1300,12 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2340,34 +2463,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFB51"/>
+  <dimension ref="A1:XFC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="33.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="257" width="8.83203125" style="1" customWidth="1"/>
-    <col min="258" max="16382" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="16" style="53" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="12" max="258" width="8.83203125" style="1" customWidth="1"/>
+    <col min="259" max="16383" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="8" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -2381,19 +2507,20 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="36"/>
-    </row>
-    <row r="2" spans="1:22" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="5"/>
+      <c r="W1" s="33"/>
+    </row>
+    <row r="2" spans="1:23" ht="42.75" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -2407,24 +2534,24 @@
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
-      <c r="V2" s="37"/>
-    </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="8"/>
+      <c r="W2" s="34"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="89" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -2435,24 +2562,24 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
-      <c r="V3" s="37"/>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="8"/>
+      <c r="W3" s="34"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1">
       <c r="A4" s="7"/>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="89" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -2463,20 +2590,21 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="37"/>
-    </row>
-    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="8"/>
+      <c r="W4" s="34"/>
+    </row>
+    <row r="5" spans="1:23" ht="21" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -2489,20 +2617,21 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="37"/>
-    </row>
-    <row r="6" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="8"/>
+      <c r="W5" s="34"/>
+    </row>
+    <row r="6" spans="1:23" ht="33" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -2515,9 +2644,10 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="37"/>
-    </row>
-    <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="8"/>
+      <c r="W6" s="34"/>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>7</v>
@@ -2529,16 +2659,18 @@
       <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -2549,24 +2681,25 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="37"/>
-    </row>
-    <row r="8" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="8"/>
+      <c r="W7" s="34"/>
+    </row>
+    <row r="8" spans="1:23" ht="21.75" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -2577,20 +2710,21 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="37"/>
-    </row>
-    <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="8"/>
+      <c r="W8" s="34"/>
+    </row>
+    <row r="9" spans="1:23" ht="20.25" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="52"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -2603,20 +2737,21 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="37"/>
-    </row>
-    <row r="10" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="8"/>
+      <c r="W9" s="34"/>
+    </row>
+    <row r="10" spans="1:23" ht="21.75" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="53"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2629,24 +2764,23 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="37"/>
-    </row>
-    <row r="11" spans="1:22" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="8"/>
+      <c r="W10" s="34"/>
+    </row>
+    <row r="11" spans="1:23" ht="30" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -2659,22 +2793,23 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="37"/>
-    </row>
-    <row r="12" spans="1:22" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="8"/>
+      <c r="W11" s="34"/>
+    </row>
+    <row r="12" spans="1:23" ht="50" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
+      <c r="D12" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -2687,20 +2822,21 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="37"/>
-    </row>
-    <row r="13" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="8"/>
+      <c r="W12" s="34"/>
+    </row>
+    <row r="13" spans="1:23" ht="19.5" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
+      <c r="B13" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -2713,20 +2849,21 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="37"/>
-    </row>
-    <row r="14" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="8"/>
+      <c r="W13" s="34"/>
+    </row>
+    <row r="14" spans="1:23" ht="27" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
+      <c r="B14" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -2739,28 +2876,29 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="37"/>
-    </row>
-    <row r="15" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="8"/>
+      <c r="W14" s="34"/>
+    </row>
+    <row r="15" spans="1:23" ht="20.25" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -2773,24 +2911,27 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="37"/>
-    </row>
-    <row r="16" spans="1:22" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="8"/>
+      <c r="W15" s="34"/>
+    </row>
+    <row r="16" spans="1:23" ht="37" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
+      <c r="B16" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -2803,20 +2944,21 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="37"/>
-    </row>
-    <row r="17" spans="1:22" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="8"/>
+      <c r="W16" s="34"/>
+    </row>
+    <row r="17" spans="1:23" ht="44" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -2829,22 +2971,21 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="37"/>
-    </row>
-    <row r="18" spans="1:22" ht="77" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="8"/>
+      <c r="W17" s="34"/>
+    </row>
+    <row r="18" spans="1:23" ht="41.5" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -2857,22 +2998,23 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
-      <c r="V18" s="37"/>
-    </row>
-    <row r="19" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="8"/>
+      <c r="W18" s="34"/>
+    </row>
+    <row r="19" spans="1:23" ht="64.5" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -2885,22 +3027,23 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
-      <c r="V19" s="37"/>
-    </row>
-    <row r="20" spans="1:22" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="8"/>
+      <c r="W19" s="34"/>
+    </row>
+    <row r="20" spans="1:23" ht="57" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -2913,20 +3056,23 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="37"/>
-    </row>
-    <row r="21" spans="1:22" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="8"/>
+      <c r="W20" s="34"/>
+    </row>
+    <row r="21" spans="1:23" ht="47" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -2939,22 +3085,23 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
-      <c r="V21" s="37"/>
-    </row>
-    <row r="22" spans="1:22" ht="77" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="8"/>
+      <c r="W21" s="34"/>
+    </row>
+    <row r="22" spans="1:23" ht="40" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -2967,21 +3114,22 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
-      <c r="V22" s="37"/>
-    </row>
-    <row r="23" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="8"/>
+      <c r="W22" s="34"/>
+    </row>
+    <row r="23" spans="1:23" ht="32" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -2995,21 +3143,20 @@
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
-      <c r="V23" s="37"/>
-    </row>
-    <row r="24" spans="1:22" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="8"/>
+      <c r="W23" s="34"/>
+    </row>
+    <row r="24" spans="1:23" ht="31" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -3023,22 +3170,19 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
-      <c r="V24" s="37"/>
-    </row>
-    <row r="25" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="8"/>
+      <c r="W24" s="34"/>
+    </row>
+    <row r="25" spans="1:23" ht="33" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -3051,22 +3195,25 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
-      <c r="V25" s="37"/>
-    </row>
-    <row r="26" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V25" s="8"/>
+      <c r="W25" s="34"/>
+    </row>
+    <row r="26" spans="1:23" ht="33" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="97"/>
+      <c r="D26" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -3079,22 +3226,23 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
-      <c r="V26" s="37"/>
-    </row>
-    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="8"/>
+      <c r="W26" s="34"/>
+    </row>
+    <row r="27" spans="1:23" ht="91" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -3107,20 +3255,23 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="37"/>
-    </row>
-    <row r="28" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="8"/>
+      <c r="W27" s="34"/>
+    </row>
+    <row r="28" spans="1:23" ht="65" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="8"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -3133,20 +3284,23 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
-      <c r="V28" s="37"/>
-    </row>
-    <row r="29" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V28" s="8"/>
+      <c r="W28" s="34"/>
+    </row>
+    <row r="29" spans="1:23" ht="64" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="49"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -3159,20 +3313,23 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
-      <c r="V29" s="37"/>
-    </row>
-    <row r="30" spans="1:22" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="8"/>
+      <c r="W29" s="34"/>
+    </row>
+    <row r="30" spans="1:23" ht="34" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="49"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -3185,22 +3342,23 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
-      <c r="V30" s="37"/>
-    </row>
-    <row r="31" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="8"/>
+      <c r="W30" s="34"/>
+    </row>
+    <row r="31" spans="1:23" ht="34" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="49"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -3213,24 +3371,19 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
-      <c r="V31" s="37"/>
-    </row>
-    <row r="32" spans="1:22" ht="91" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V31" s="8"/>
+      <c r="W31" s="34"/>
+    </row>
+    <row r="32" spans="1:23" ht="21.75" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="8"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -3243,22 +3396,21 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
-      <c r="V32" s="37"/>
-    </row>
-    <row r="33" spans="1:22" ht="65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V32" s="8"/>
+      <c r="W32" s="34"/>
+    </row>
+    <row r="33" spans="1:23" ht="27" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="8"/>
+      <c r="B33" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -3271,22 +3423,25 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="37"/>
-    </row>
-    <row r="34" spans="1:22" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="8"/>
+      <c r="W33" s="34"/>
+    </row>
+    <row r="34" spans="1:23" ht="16.5" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="8"/>
+      <c r="B34" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="83"/>
+      <c r="E34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="51"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -3299,22 +3454,21 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
-      <c r="V34" s="37"/>
-    </row>
-    <row r="35" spans="1:22" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V34" s="8"/>
+      <c r="W34" s="34"/>
+    </row>
+    <row r="35" spans="1:23" ht="16.5" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="8"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -3327,22 +3481,21 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="37"/>
-    </row>
-    <row r="36" spans="1:22" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V35" s="8"/>
+      <c r="W35" s="34"/>
+    </row>
+    <row r="36" spans="1:23" ht="16.5" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="8"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -3355,22 +3508,23 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
-      <c r="V36" s="37"/>
-    </row>
-    <row r="37" spans="1:22" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V36" s="8"/>
+      <c r="W36" s="34"/>
+    </row>
+    <row r="37" spans="1:23" ht="16.5" customHeight="1">
       <c r="A37" s="7"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="8"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="51"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -3383,22 +3537,21 @@
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
-      <c r="V37" s="37"/>
-    </row>
-    <row r="38" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V37" s="8"/>
+      <c r="W37" s="34"/>
+    </row>
+    <row r="38" spans="1:23" ht="16.5" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="8"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="51"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -3411,22 +3564,21 @@
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-      <c r="V38" s="37"/>
-    </row>
-    <row r="39" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V38" s="8"/>
+      <c r="W38" s="34"/>
+    </row>
+    <row r="39" spans="1:23" ht="37" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -3439,22 +3591,21 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="37"/>
-    </row>
-    <row r="40" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V39" s="8"/>
+      <c r="W39" s="34"/>
+    </row>
+    <row r="40" spans="1:23" ht="64" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="8"/>
+      <c r="B40" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -3467,21 +3618,18 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
-      <c r="V40" s="37"/>
-    </row>
-    <row r="41" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="9"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="34"/>
+    </row>
+    <row r="41" spans="1:23" ht="14" customHeight="1">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -3495,313 +3643,67 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="37"/>
-    </row>
-    <row r="42" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="37"/>
-    </row>
-    <row r="43" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="37"/>
-    </row>
-    <row r="44" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="37"/>
-    </row>
-    <row r="45" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="37"/>
-    </row>
-    <row r="46" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="37"/>
-    </row>
-    <row r="47" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="37"/>
-    </row>
-    <row r="48" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="37"/>
-    </row>
-    <row r="49" spans="1:22" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="37"/>
-    </row>
-    <row r="50" spans="1:22" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="37"/>
-    </row>
-    <row r="51" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="37"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B2:G2"/>
+  <autoFilter ref="B2:H31" xr:uid="{10F977A9-B9DC-404E-A3D2-1A6AD73FC66D}">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="31">
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E3:H3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B16:C31"/>
-    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B26:C31"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B16:C25"/>
+    <mergeCell ref="C34:D36"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="B32:C41"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G32:G41"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G48"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="G1 G7:G8 G13 G15:G16 G20 G25:G27 G31:G33 G49 G44:G47 E42:G42 G51">
+  <conditionalFormatting sqref="H1 H7:H8 H15:H17 H23 H25:H28 H39 H34:H37 E32:H32 H41">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{8854ABC1-4CAC-49FE-874E-6A6F12D5E27D}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>

--- a/youlin requirement.xlsx
+++ b/youlin requirement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipai\Documents\GitHub\Youlin\digital product\publish\youlin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E8D878-46AC-454F-A138-37C6808A12B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D14E83-C407-42EB-8C49-7FA06CC7AE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报价清单!$B$2:$H$31</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,6 +62,9 @@
     <t>数量</t>
   </si>
   <si>
+    <t>选项Must/Option</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -76,9 +86,16 @@
     <t>主页风格设计</t>
   </si>
   <si>
+    <t>优临自提供</t>
+  </si>
+  <si>
     <t>整体功能UI设计</t>
   </si>
   <si>
+    <t>WX_APP 设计优临自提供
+控制台平台提供模板套用</t>
+  </si>
+  <si>
     <t>前台小计：</t>
   </si>
   <si>
@@ -97,10 +114,101 @@
     <t>开发费用</t>
   </si>
   <si>
+    <t>公众号+小程序</t>
+  </si>
+  <si>
+    <t>讯息流</t>
+  </si>
+  <si>
+    <t>活动提醒, 事件瀑布流,（仅服务号）</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Event 事件留言， 后台支持增减修改</t>
+  </si>
+  <si>
+    <t>小程序 Event/公约 数据库显示/编辑</t>
+  </si>
+  <si>
     <t>注册</t>
   </si>
   <si>
+    <t>1. 个人注册（小程序分享）：账号，邮箱，手机号码，出生日期，所在地，姓名
+2. 扫码注册：二维码生成, 注册进群
+3. 小程序转发分享</t>
+  </si>
+  <si>
+    <t>成员设置</t>
+  </si>
+  <si>
+    <t>成员管理 (标签唯一），群主转换</t>
+  </si>
+  <si>
+    <t>周报</t>
+  </si>
+  <si>
+    <t>周报生成微服务， 小程序内显示
+打卡阅览登入统计
+周报互评留言</t>
+  </si>
+  <si>
+    <t>发现页-活动建议</t>
+  </si>
+  <si>
+    <t>活动说明指导， H5 页面 （可从服务号跳转）</t>
+  </si>
+  <si>
+    <t>公众号讯息流</t>
+  </si>
+  <si>
+    <t>活动（服务号）, 打卡更新提醒</t>
+  </si>
+  <si>
+    <t>会员更新提醒</t>
+  </si>
+  <si>
     <t>后台管理系统</t>
+  </si>
+  <si>
+    <t>打卡管理</t>
+  </si>
+  <si>
+    <t>搜索打卡任务，修改发布，添加，删除</t>
+  </si>
+  <si>
+    <t>活动管理</t>
+  </si>
+  <si>
+    <t>活动管理 课程的发布，添加，修改，删除</t>
+  </si>
+  <si>
+    <t>用户管理/群管理</t>
+  </si>
+  <si>
+    <t>查看用户的信息
+用户阅览记录统计
+群管理，家庭整合</t>
+  </si>
+  <si>
+    <t>留言管理</t>
+  </si>
+  <si>
+    <t>event , 周报 ， 活动 , family 瀑布流, 留言发布，添加，删除
+违规提醒 （红）</t>
+  </si>
+  <si>
+    <t>提醒管理</t>
+  </si>
+  <si>
+    <t>公众号提醒编辑 ，目标族群编辑</t>
+  </si>
+  <si>
+    <t>报告数据</t>
+  </si>
+  <si>
+    <t>周报数据 （根据条件批量搜索导出）</t>
   </si>
   <si>
     <t>费用合计</t>
@@ -128,136 +236,6 @@
 1、一年时间常规免费维护，免费BUG修复；
 2、提供源代码；
 </t>
-  </si>
-  <si>
-    <t>优临自提供</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号+小程序</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>WX_APP 设计优临自提供
-控制台平台提供模板套用</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>讯息流</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>周报</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员设置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>小程序 Event/公约 数据库显示/编辑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员管理 (标签唯一），群主转换</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号讯息流</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动管理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动管理 课程的发布，添加，修改，删除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现页-活动建议</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项Must/Option</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动提醒, 事件瀑布流,（仅服务号）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event 事件留言， 后台支持增减修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>周报生成微服务， 小程序内显示
-打卡阅览登入统计
-周报互评留言</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员更新提醒</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理/群管理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>打卡管理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>留言管理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒管理</t>
-  </si>
-  <si>
-    <t>报告数据</t>
-  </si>
-  <si>
-    <t>搜索打卡任务，修改发布，添加，删除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看用户的信息
-用户阅览记录统计
-群管理，家庭整合</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>event , 周报 ， 活动 , family 瀑布流, 留言发布，添加，删除
-违规提醒 （红）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号提醒编辑 ，目标族群编辑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 个人注册（小程序分享）：账号，邮箱，手机号码，出生日期，所在地，姓名
-2. 扫码注册：二维码生成, 注册进群
-3. 小程序转发分享</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动说明指导， H5 页面 （可从服务号跳转）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动（服务号）, 打卡更新提醒</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>周报数据 （根据条件批量搜索导出）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -265,14 +243,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;设计合计：¥&quot;#,##0;&quot;¥-&quot;#,##0"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥ &quot;#,##0&quot; &quot;;&quot;(¥ &quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;设计合计：¥&quot;#,##0;&quot;¥-&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="&quot;¥ &quot;#,##0&quot; &quot;;&quot;(¥ &quot;#,##0\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -322,8 +306,30 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -338,7 +344,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -352,12 +357,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -365,28 +364,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <strike/>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -419,13 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="14"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +541,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -564,15 +570,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -663,6 +660,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -677,6 +685,15 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -684,6 +701,24 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -703,10 +738,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -720,6 +755,28 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -735,6 +792,41 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -747,6 +839,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -757,43 +860,8 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -818,9 +886,26 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,107 +938,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,334 +962,340 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2465,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="33.75" customHeight="1"/>
@@ -2475,177 +2477,177 @@
     <col min="2" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="53" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
     <col min="12" max="258" width="8.83203125" style="1" customWidth="1"/>
-    <col min="259" max="16383" width="8.83203125" style="2"/>
+    <col min="259" max="16383" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="8" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="33"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="43"/>
     </row>
     <row r="2" spans="1:23" ht="42.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="108" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="34"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="111" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="111" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="34"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="44"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="111" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="111" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="34"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="100" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="34"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="44"/>
     </row>
     <row r="6" spans="1:23" ht="33" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="34"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="44"/>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1">
       <c r="A7" s="10"/>
@@ -2659,1019 +2661,1026 @@
       <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="44"/>
+    </row>
+    <row r="8" spans="1:23" ht="21.75" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="44"/>
+    </row>
+    <row r="9" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="44"/>
+    </row>
+    <row r="10" spans="1:23" ht="21.75" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="44"/>
+    </row>
+    <row r="11" spans="1:23" ht="30" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="87"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="44"/>
+    </row>
+    <row r="12" spans="1:23" ht="50" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="44"/>
+    </row>
+    <row r="13" spans="1:23" ht="19.5" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="44"/>
+    </row>
+    <row r="14" spans="1:23" ht="27" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="44"/>
+    </row>
+    <row r="15" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="44"/>
+    </row>
+    <row r="16" spans="1:23" ht="37" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="87">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="44"/>
+    </row>
+    <row r="17" spans="1:23" ht="44" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="44"/>
+    </row>
+    <row r="18" spans="1:23" ht="41.5" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="44"/>
+    </row>
+    <row r="19" spans="1:23" ht="64.5" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24">
+        <v>3000</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="44"/>
+    </row>
+    <row r="20" spans="1:23" ht="57" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="44"/>
+    </row>
+    <row r="21" spans="1:23" ht="47" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24">
+        <v>3000</v>
+      </c>
+      <c r="I21" s="41"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="44"/>
+    </row>
+    <row r="22" spans="1:23" ht="40" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="17">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="44"/>
+    </row>
+    <row r="23" spans="1:23" ht="32" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="88">
+        <v>3000</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="44"/>
+    </row>
+    <row r="24" spans="1:23" ht="31" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="44"/>
+    </row>
+    <row r="25" spans="1:23" ht="33" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="44"/>
+    </row>
+    <row r="26" spans="1:23" ht="33" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="34"/>
-    </row>
-    <row r="8" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="34"/>
-    </row>
-    <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="34"/>
-    </row>
-    <row r="10" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="34"/>
-    </row>
-    <row r="11" spans="1:23" ht="30" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" ht="50" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="34"/>
-    </row>
-    <row r="13" spans="1:23" ht="19.5" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="34"/>
-    </row>
-    <row r="14" spans="1:23" ht="27" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="57" t="s">
+      <c r="F26" s="107"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="109">
+        <v>3000</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="44"/>
+    </row>
+    <row r="27" spans="1:23" ht="91" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="107"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="113">
+        <v>5000</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="44"/>
+    </row>
+    <row r="28" spans="1:23" ht="65" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="113">
+        <v>5000</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="44"/>
+    </row>
+    <row r="29" spans="1:23" ht="64" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="113">
+        <v>3000</v>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="44"/>
+    </row>
+    <row r="30" spans="1:23" ht="34" customHeight="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="107"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="113">
+        <v>2000</v>
+      </c>
+      <c r="I30" s="41"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="44"/>
+    </row>
+    <row r="31" spans="1:23" ht="34" customHeight="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="107"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="113">
+        <v>3000</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="44"/>
+    </row>
+    <row r="32" spans="1:23" ht="21.75" customHeight="1">
+      <c r="A32" s="9"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="67">
+        <f>SUM(H16:H24)</f>
+        <v>19000</v>
+      </c>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="44"/>
+    </row>
+    <row r="33" spans="1:23" ht="27" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="44"/>
+    </row>
+    <row r="34" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="100"/>
+      <c r="E34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="44"/>
+    </row>
+    <row r="35" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="44"/>
+    </row>
+    <row r="36" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A36" s="9"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="34"/>
-    </row>
-    <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="34"/>
-    </row>
-    <row r="16" spans="1:23" ht="37" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="34"/>
-    </row>
-    <row r="17" spans="1:23" ht="44" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="34"/>
-    </row>
-    <row r="18" spans="1:23" ht="41.5" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="34"/>
-    </row>
-    <row r="19" spans="1:23" ht="64.5" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="F36" s="30"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="44"/>
+    </row>
+    <row r="37" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="94"/>
+      <c r="E37" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="34"/>
-    </row>
-    <row r="20" spans="1:23" ht="57" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="34"/>
-    </row>
-    <row r="21" spans="1:23" ht="47" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="34"/>
-    </row>
-    <row r="22" spans="1:23" ht="40" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="23" t="s">
+      <c r="F37" s="30"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="44"/>
+    </row>
+    <row r="38" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="34"/>
-    </row>
-    <row r="23" spans="1:23" ht="32" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="23" t="s">
+      <c r="F38" s="30"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="44"/>
+    </row>
+    <row r="39" spans="1:23" ht="37" customHeight="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="34"/>
-    </row>
-    <row r="24" spans="1:23" ht="31" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="34"/>
-    </row>
-    <row r="25" spans="1:23" ht="33" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="34"/>
-    </row>
-    <row r="26" spans="1:23" ht="33" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="34"/>
-    </row>
-    <row r="27" spans="1:23" ht="91" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="34"/>
-    </row>
-    <row r="28" spans="1:23" ht="65" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="34"/>
-    </row>
-    <row r="29" spans="1:23" ht="64" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="34"/>
-    </row>
-    <row r="30" spans="1:23" ht="34" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="34"/>
-    </row>
-    <row r="31" spans="1:23" ht="34" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="23" t="s">
+      <c r="H39" s="24"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="44"/>
+    </row>
+    <row r="40" spans="1:23" ht="64" customHeight="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="34"/>
-    </row>
-    <row r="32" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="34"/>
-    </row>
-    <row r="33" spans="1:23" ht="27" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="34"/>
-    </row>
-    <row r="34" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="34"/>
-    </row>
-    <row r="35" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="34"/>
-    </row>
-    <row r="36" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="34"/>
-    </row>
-    <row r="37" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="34"/>
-    </row>
-    <row r="38" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="34"/>
-    </row>
-    <row r="39" spans="1:23" ht="37" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="34"/>
-    </row>
-    <row r="40" spans="1:23" ht="64" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="34"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="44"/>
     </row>
     <row r="41" spans="1:23" ht="14" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="34"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H31" xr:uid="{10F977A9-B9DC-404E-A3D2-1A6AD73FC66D}">
-    <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="31">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B14:H14"/>
+  <autoFilter ref="B2:H31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="32">
+    <mergeCell ref="C34:D36"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:H32"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B26:C31"/>
-    <mergeCell ref="C37:D38"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B8:B10"/>
@@ -3680,27 +3689,41 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="H8:H12"/>
     <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="H34:H36"/>
     <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B26:C31"/>
+    <mergeCell ref="C37:D38"/>
     <mergeCell ref="B16:C25"/>
-    <mergeCell ref="C34:D36"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="H1 H7:H8 H15:H17 H23 H25:H28 H39 H34:H37 E32:H32 H41">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+  <phoneticPr fontId="16" type="noConversion"/>
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="H1 H7:H8 H15:H17 H23 H25:H28 H39 H34:H37 E32:H32 H41">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{8854ABC1-4CAC-49FE-874E-6A6F12D5E27D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$7:$K$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/youlin requirement.xlsx
+++ b/youlin requirement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipai\Documents\GitHub\Youlin\digital product\publish\youlin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D14E83-C407-42EB-8C49-7FA06CC7AE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA85F98-64FA-4E00-A073-9A85F2FA8048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="报价清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报价清单!$B$2:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报价清单!$B$2:$H$40</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>北京逅时代功能报价清单</t>
   </si>
@@ -169,46 +169,34 @@
     <t>会员更新提醒</t>
   </si>
   <si>
-    <t>后台管理系统</t>
-  </si>
-  <si>
-    <t>打卡管理</t>
-  </si>
-  <si>
-    <t>搜索打卡任务，修改发布，添加，删除</t>
-  </si>
-  <si>
-    <t>活动管理</t>
-  </si>
-  <si>
-    <t>活动管理 课程的发布，添加，修改，删除</t>
-  </si>
-  <si>
-    <t>用户管理/群管理</t>
-  </si>
-  <si>
-    <t>查看用户的信息
-用户阅览记录统计
-群管理，家庭整合</t>
-  </si>
-  <si>
-    <t>留言管理</t>
-  </si>
-  <si>
-    <t>event , 周报 ， 活动 , family 瀑布流, 留言发布，添加，删除
-违规提醒 （红）</t>
-  </si>
-  <si>
-    <t>提醒管理</t>
-  </si>
-  <si>
-    <t>公众号提醒编辑 ，目标族群编辑</t>
-  </si>
-  <si>
-    <t>报告数据</t>
-  </si>
-  <si>
-    <t>周报数据 （根据条件批量搜索导出）</t>
+    <t>活动提醒（活动详情，签到）</t>
+  </si>
+  <si>
+    <t>我的家庭</t>
+  </si>
+  <si>
+    <t>发布页（xx时光）</t>
+  </si>
+  <si>
+    <t>内容页</t>
+  </si>
+  <si>
+    <t>个人设置</t>
+  </si>
+  <si>
+    <t>微店</t>
+  </si>
+  <si>
+    <t>优临微店</t>
+  </si>
+  <si>
+    <t>发现内容</t>
+  </si>
+  <si>
+    <t>速成游戏</t>
+  </si>
+  <si>
+    <t>家庭游戏</t>
   </si>
   <si>
     <t>费用合计</t>
@@ -243,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="&quot;设计合计：¥&quot;#,##0;&quot;¥-&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="&quot;¥ &quot;#,##0&quot; &quot;;&quot;(¥ &quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥ &quot;#,##0&quot; &quot;;&quot;(¥ &quot;#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="&quot;设计合计：¥&quot;#,##0;&quot;¥-&quot;#,##0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -306,30 +294,8 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -357,31 +323,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -412,18 +378,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="14"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -541,7 +507,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -570,21 +538,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right/>
@@ -608,19 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -653,17 +593,6 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -705,7 +634,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -733,6 +664,138 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,173 +812,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -942,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,340 +858,289 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1650,7 +1495,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2216,7 +2061,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2467,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:H33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="33.75" customHeight="1"/>
@@ -2493,9 +2338,9 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="8"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2513,7 +2358,7 @@
       <c r="W1" s="43"/>
     </row>
     <row r="2" spans="1:23" ht="42.75" customHeight="1">
-      <c r="A2" s="9"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
@@ -2523,24 +2368,24 @@
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
       <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A3" s="9"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
@@ -2552,23 +2397,23 @@
       <c r="F3" s="51"/>
       <c r="G3" s="52"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
       <c r="W3" s="44"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="48" t="s">
         <v>3</v>
       </c>
@@ -2580,23 +2425,23 @@
       <c r="F4" s="51"/>
       <c r="G4" s="52"/>
       <c r="H4" s="50"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
       <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="53" t="s">
         <v>5</v>
       </c>
@@ -2606,24 +2451,24 @@
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="56"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
       <c r="W5" s="44"/>
     </row>
     <row r="6" spans="1:23" ht="33" customHeight="1">
-      <c r="A6" s="10"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="57" t="s">
         <v>6</v>
       </c>
@@ -2633,229 +2478,229 @@
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
       <c r="H6" s="60"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
       <c r="W6" s="44"/>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
       <c r="W7" s="44"/>
     </row>
     <row r="8" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A8" s="9"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="61" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="62"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
       <c r="W8" s="44"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A9" s="9"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="78"/>
-      <c r="C9" s="19"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="61" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="62"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
       <c r="W9" s="44"/>
     </row>
     <row r="10" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A10" s="9"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="79"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="61" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="62"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
       <c r="W10" s="44"/>
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="61"/>
       <c r="E11" s="62"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="44"/>
     </row>
     <row r="12" spans="1:23" ht="50" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="61" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="62"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
       <c r="W12" s="44"/>
     </row>
     <row r="13" spans="1:23" ht="19.5" customHeight="1">
-      <c r="A13" s="9"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="65"/>
       <c r="E13" s="66"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="67"/>
       <c r="H13" s="68"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
       <c r="W13" s="44"/>
     </row>
     <row r="14" spans="1:23" ht="27" customHeight="1">
-      <c r="A14" s="9"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="69" t="s">
         <v>22</v>
       </c>
@@ -2865,573 +2710,561 @@
       <c r="F14" s="71"/>
       <c r="G14" s="71"/>
       <c r="H14" s="72"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
       <c r="W14" s="44"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
       <c r="W15" s="44"/>
     </row>
     <row r="16" spans="1:23" ht="37" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="96" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="35" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="87">
-        <v>5000</v>
-      </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
+      <c r="H16" s="88">
+        <v>4000</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
       <c r="W16" s="44"/>
     </row>
     <row r="17" spans="1:23" ht="44" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="75"/>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
       <c r="W17" s="44"/>
     </row>
     <row r="18" spans="1:23" ht="41.5" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="75"/>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
       <c r="W18" s="44"/>
     </row>
     <row r="19" spans="1:23" ht="64.5" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="22" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="24">
+      <c r="H19" s="32">
+        <v>2500</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="44"/>
+    </row>
+    <row r="20" spans="1:23" ht="57" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="32">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="44"/>
+    </row>
+    <row r="21" spans="1:23" ht="47" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="32">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="44"/>
+    </row>
+    <row r="22" spans="1:23" ht="40" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="31">
         <v>3000</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="44"/>
-    </row>
-    <row r="20" spans="1:23" ht="57" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24">
-        <v>2000</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="44"/>
-    </row>
-    <row r="21" spans="1:23" ht="47" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24">
-        <v>3000</v>
-      </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="44"/>
-    </row>
-    <row r="22" spans="1:23" ht="40" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="17">
-        <v>3000</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
       <c r="W22" s="44"/>
     </row>
     <row r="23" spans="1:23" ht="32" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="88">
-        <v>3000</v>
-      </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="89">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
       <c r="W23" s="44"/>
     </row>
     <row r="24" spans="1:23" ht="31" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="83"/>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
       <c r="W24" s="44"/>
     </row>
-    <row r="25" spans="1:23" ht="33" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+    <row r="25" spans="1:23" ht="31" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
       <c r="W25" s="44"/>
     </row>
-    <row r="26" spans="1:23" ht="33" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105" t="s">
+    <row r="26" spans="1:23" ht="31" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="106" t="s">
+      <c r="E26" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109">
-        <v>3000</v>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="89">
+        <v>1000</v>
       </c>
       <c r="I26" s="41"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
       <c r="W26" s="44"/>
     </row>
-    <row r="27" spans="1:23" ht="91" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112" t="s">
+    <row r="27" spans="1:23" ht="31" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="106" t="s">
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="44"/>
+    </row>
+    <row r="28" spans="1:23" ht="31" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="113">
-        <v>5000</v>
-      </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="44"/>
-    </row>
-    <row r="28" spans="1:23" ht="65" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="114" t="s">
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="44"/>
+    </row>
+    <row r="29" spans="1:23" ht="31" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E29" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="113">
-        <v>5000</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="44"/>
-    </row>
-    <row r="29" spans="1:23" ht="64" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="115" t="s">
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="44"/>
+    </row>
+    <row r="30" spans="1:23" ht="31" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="106" t="s">
+      <c r="E30" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="107"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="113">
-        <v>3000</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="44"/>
-    </row>
-    <row r="30" spans="1:23" ht="34" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="114" t="s">
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="89">
+        <v>1500</v>
+      </c>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="44"/>
+    </row>
+    <row r="31" spans="1:23" ht="31" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="113">
-        <v>2000</v>
-      </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="44"/>
-    </row>
-    <row r="31" spans="1:23" ht="34" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="107"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="113">
-        <v>3000</v>
-      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="41"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
       <c r="W31" s="44"/>
     </row>
     <row r="32" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A32" s="9"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
       <c r="D32" s="73"/>
       <c r="E32" s="67">
-        <f>SUM(H16:H24)</f>
+        <f>H29+H26+H30+H23+H22+H21+H20+H19+H16</f>
         <v>19000</v>
       </c>
       <c r="F32" s="68"/>
       <c r="G32" s="68"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
       <c r="W32" s="44"/>
     </row>
     <row r="33" spans="1:23" ht="27" customHeight="1">
-      <c r="A33" s="9"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="69" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="70"/>
       <c r="D33" s="71"/>
@@ -3439,194 +3272,194 @@
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
       <c r="H33" s="72"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
       <c r="W33" s="44"/>
     </row>
     <row r="34" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A34" s="9"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="97"/>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="44"/>
+    </row>
+    <row r="35" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="44"/>
+    </row>
+    <row r="36" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="44"/>
+    </row>
+    <row r="37" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="22" t="s">
+      <c r="D37" s="100"/>
+      <c r="E37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="44"/>
-    </row>
-    <row r="35" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="22" t="s">
+      <c r="F37" s="19"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="44"/>
+    </row>
+    <row r="38" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="44"/>
-    </row>
-    <row r="36" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="44"/>
-    </row>
-    <row r="37" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="94" t="s">
+      <c r="F38" s="19"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="44"/>
+    </row>
+    <row r="39" spans="1:23" ht="37" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="22" t="s">
+      <c r="H39" s="32"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="44"/>
+    </row>
+    <row r="40" spans="1:23" ht="64" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="75" t="s">
         <v>61</v>
-      </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="44"/>
-    </row>
-    <row r="38" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="44"/>
-    </row>
-    <row r="39" spans="1:23" ht="37" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="44"/>
-    </row>
-    <row r="40" spans="1:23" ht="64" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="75" t="s">
-        <v>64</v>
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="76"/>
@@ -3634,51 +3467,54 @@
       <c r="F40" s="76"/>
       <c r="G40" s="76"/>
       <c r="H40" s="76"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
       <c r="W40" s="44"/>
     </row>
     <row r="41" spans="1:23" ht="14" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
       <c r="W41" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="32">
+  <autoFilter ref="B2:H40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="35">
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B16:C31"/>
     <mergeCell ref="C34:D36"/>
+    <mergeCell ref="C37:D38"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="B33:H33"/>
@@ -3686,15 +3522,15 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="H8:H12"/>
     <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H30:H31"/>
     <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="B26:C31"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="B16:C25"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:E13"/>
@@ -3711,13 +3547,13 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:H4"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G13:H13">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1 H7:H8 H15:H17 H23 H25:H28 H39 H34:H37 E32:H32 H41">
+  <conditionalFormatting sqref="H1 H7:H8 H15:H17 H23 H41 E32:H32 H34:H37 H39">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/youlin requirement.xlsx
+++ b/youlin requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipai\Documents\GitHub\Youlin\digital product\publish\youlin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA85F98-64FA-4E00-A073-9A85F2FA8048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B423C-DF49-4D8D-B55D-EDA3A683A663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="报价清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报价清单!$B$2:$H$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报价清单!$B$2:$H$41</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>北京逅时代功能报价清单</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>个人设置</t>
-  </si>
-  <si>
-    <t>微店</t>
   </si>
   <si>
     <t>优临微店</t>
@@ -224,6 +221,18 @@
 1、一年时间常规免费维护，免费BUG修复；
 2、提供源代码；
 </t>
+  </si>
+  <si>
+    <t>微店</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号-影片编辑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号-纪录片编辑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -231,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="&quot;¥ &quot;#,##0&quot; &quot;;&quot;(¥ &quot;#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="&quot;设计合计：¥&quot;#,##0;&quot;¥-&quot;#,##0"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥ &quot;#,##0&quot; &quot;;&quot;(¥ &quot;#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;设计合计：¥&quot;#,##0;&quot;¥-&quot;#,##0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -350,8 +359,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,7 +948,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,10 +960,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,13 +981,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,6 +1002,156 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -996,151 +1176,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2310,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC41"/>
+  <dimension ref="A1:XFC42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="33.75" customHeight="1"/>
@@ -2359,15 +2410,15 @@
     </row>
     <row r="2" spans="1:23" ht="42.75" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="41"/>
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
@@ -2386,17 +2437,17 @@
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="48" t="s">
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="50"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="42"/>
       <c r="J3" s="41"/>
       <c r="L3" s="41"/>
@@ -2414,17 +2465,17 @@
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1">
       <c r="A4" s="7"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="48" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="50"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="42"/>
       <c r="J4" s="41"/>
       <c r="L4" s="41"/>
@@ -2442,15 +2493,15 @@
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="42"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -2469,15 +2520,15 @@
     </row>
     <row r="6" spans="1:23" ht="33" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="42"/>
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
@@ -2533,17 +2584,17 @@
     </row>
     <row r="8" spans="1:23" ht="21.75" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="62"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="29"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="85"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="42"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
@@ -2562,15 +2613,15 @@
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="78"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="29"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="86"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="42"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
@@ -2589,15 +2640,15 @@
     </row>
     <row r="10" spans="1:23" ht="21.75" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="79"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="62"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="29"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="87"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="42"/>
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
@@ -2620,13 +2671,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="29"/>
       <c r="G11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="88"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="42"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
@@ -2649,13 +2700,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="62"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="29"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="88"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="42"/>
       <c r="J12" s="41"/>
       <c r="K12" s="41"/>
@@ -2674,15 +2725,15 @@
     </row>
     <row r="13" spans="1:23" ht="19.5" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
       <c r="I13" s="42"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -2701,15 +2752,15 @@
     </row>
     <row r="14" spans="1:23" ht="27" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="42"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
@@ -2763,11 +2814,11 @@
     </row>
     <row r="16" spans="1:23" ht="37" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="75" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="66" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="34" t="s">
@@ -2777,7 +2828,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="88">
+      <c r="H16" s="46">
         <v>4000</v>
       </c>
       <c r="I16" s="42"/>
@@ -2798,15 +2849,15 @@
     </row>
     <row r="17" spans="1:23" ht="44" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="75"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="88"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="42"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -2825,15 +2876,15 @@
     </row>
     <row r="18" spans="1:23" ht="41.5" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="75"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="34" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="88"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="42"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
@@ -2852,8 +2903,8 @@
     </row>
     <row r="19" spans="1:23" ht="64.5" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="16" t="s">
         <v>33</v>
       </c>
@@ -2883,8 +2934,8 @@
     </row>
     <row r="20" spans="1:23" ht="57" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="18" t="s">
         <v>35</v>
       </c>
@@ -2914,8 +2965,8 @@
     </row>
     <row r="21" spans="1:23" ht="47" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="16" t="s">
         <v>37</v>
       </c>
@@ -2945,8 +2996,8 @@
     </row>
     <row r="22" spans="1:23" ht="40" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="16" t="s">
         <v>39</v>
       </c>
@@ -2976,9 +3027,9 @@
     </row>
     <row r="23" spans="1:23" ht="32" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="83" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="34" t="s">
@@ -2986,7 +3037,7 @@
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="37"/>
-      <c r="H23" s="89">
+      <c r="H23" s="77">
         <v>2000</v>
       </c>
       <c r="I23" s="41"/>
@@ -3007,15 +3058,15 @@
     </row>
     <row r="24" spans="1:23" ht="31" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="83"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="34" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="89"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
@@ -3034,15 +3085,15 @@
     </row>
     <row r="25" spans="1:23" ht="31" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="84"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="34" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="89"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
@@ -3061,19 +3112,17 @@
     </row>
     <row r="26" spans="1:23" ht="31" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="84" t="s">
-        <v>45</v>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="89">
-        <v>1000</v>
-      </c>
+      <c r="H26" s="108"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
@@ -3092,15 +3141,19 @@
     </row>
     <row r="27" spans="1:23" ht="31" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="84"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="73" t="s">
+        <v>45</v>
+      </c>
       <c r="E27" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="89"/>
+      <c r="H27" s="77">
+        <v>1000</v>
+      </c>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
@@ -3119,15 +3172,15 @@
     </row>
     <row r="28" spans="1:23" ht="31" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="84"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="89"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
       <c r="K28" s="41"/>
@@ -3146,19 +3199,15 @@
     </row>
     <row r="29" spans="1:23" ht="31" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
-      <c r="H29" s="38">
-        <v>1000</v>
-      </c>
+      <c r="H29" s="77"/>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
@@ -3177,18 +3226,18 @@
     </row>
     <row r="30" spans="1:23" ht="31" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="84" t="s">
-        <v>51</v>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
-      <c r="H30" s="89">
-        <v>1500</v>
+      <c r="H30" s="38">
+        <v>1000</v>
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
@@ -3208,15 +3257,19 @@
     </row>
     <row r="31" spans="1:23" ht="31" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="89"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="103"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="107">
+        <v>1500</v>
+      </c>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
@@ -3233,19 +3286,18 @@
       <c r="V31" s="41"/>
       <c r="W31" s="44"/>
     </row>
-    <row r="32" spans="1:23" ht="21.75" customHeight="1">
+    <row r="32" spans="1:23" ht="31" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="73"/>
-      <c r="E32" s="67">
-        <f>H29+H26+H30+H23+H22+H21+H20+H19+H16</f>
-        <v>19000</v>
-      </c>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="42"/>
+      <c r="E32" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="41"/>
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
@@ -3261,17 +3313,18 @@
       <c r="V32" s="41"/>
       <c r="W32" s="44"/>
     </row>
-    <row r="33" spans="1:23" ht="27" customHeight="1">
+    <row r="33" spans="1:23" ht="21.75" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="72"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57">
+        <f>H30+H27+H31+H23+H22+H21+H20+H19+H16</f>
+        <v>19000</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="42"/>
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
@@ -3288,21 +3341,17 @@
       <c r="V33" s="41"/>
       <c r="W33" s="44"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" customHeight="1">
+    <row r="34" spans="1:23" ht="27" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="90"/>
+      <c r="B34" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
       <c r="I34" s="42"/>
       <c r="J34" s="41"/>
       <c r="K34" s="41"/>
@@ -3321,15 +3370,19 @@
     </row>
     <row r="35" spans="1:23" ht="16.5" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
+      <c r="B35" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="51"/>
       <c r="E35" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="91"/>
+      <c r="H35" s="78"/>
       <c r="I35" s="42"/>
       <c r="J35" s="41"/>
       <c r="K35" s="41"/>
@@ -3348,15 +3401,15 @@
     </row>
     <row r="36" spans="1:23" ht="16.5" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="92"/>
+      <c r="H36" s="79"/>
       <c r="I36" s="42"/>
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
@@ -3375,17 +3428,15 @@
     </row>
     <row r="37" spans="1:23" ht="16.5" customHeight="1">
       <c r="A37" s="7"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="100"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="16" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="80"/>
       <c r="I37" s="42"/>
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
@@ -3404,15 +3455,17 @@
     </row>
     <row r="38" spans="1:23" ht="16.5" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="54"/>
       <c r="E38" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="88"/>
+      <c r="H38" s="46"/>
       <c r="I38" s="42"/>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
@@ -3429,17 +3482,17 @@
       <c r="V38" s="41"/>
       <c r="W38" s="44"/>
     </row>
-    <row r="39" spans="1:23" ht="37" customHeight="1">
+    <row r="39" spans="1:23" ht="16.5" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="32"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="42"/>
       <c r="J39" s="41"/>
       <c r="K39" s="41"/>
@@ -3456,17 +3509,17 @@
       <c r="V39" s="41"/>
       <c r="W39" s="44"/>
     </row>
-    <row r="40" spans="1:23" ht="64" customHeight="1">
+    <row r="40" spans="1:23" ht="37" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="32"/>
       <c r="I40" s="42"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
@@ -3483,16 +3536,18 @@
       <c r="V40" s="41"/>
       <c r="W40" s="44"/>
     </row>
-    <row r="41" spans="1:23" ht="14" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
+    <row r="41" spans="1:23" ht="64" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="42"/>
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
       <c r="L41" s="41"/>
@@ -3508,32 +3563,39 @@
       <c r="V41" s="41"/>
       <c r="W41" s="44"/>
     </row>
+    <row r="42" spans="1:23" ht="14" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="44"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:H40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:H41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="35">
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="B16:C31"/>
-    <mergeCell ref="C34:D36"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B5:H5"/>
@@ -3541,11 +3603,29 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="B16:C32"/>
+    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="D16:D18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G13:H13">
@@ -3553,7 +3633,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1 H7:H8 H15:H17 H23 H41 E32:H32 H34:H37 H39">
+  <conditionalFormatting sqref="H1 H7:H8 H15:H17 H23 H42 E33:H33 H35:H38 H40">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/youlin requirement.xlsx
+++ b/youlin requirement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zipai\Documents\GitHub\Youlin\digital product\publish\youlin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B423C-DF49-4D8D-B55D-EDA3A683A663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE39FEEB-4644-4A65-9AD6-FAC7EF2F94EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="报价清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报价清单!$B$2:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">报价清单!$B$2:$H$37</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>北京逅时代功能报价清单</t>
   </si>
@@ -124,12 +125,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Event 事件留言， 后台支持增减修改</t>
-  </si>
-  <si>
-    <t>小程序 Event/公约 数据库显示/编辑</t>
   </si>
   <si>
     <t>注册</t>
@@ -182,18 +177,6 @@
   </si>
   <si>
     <t>个人设置</t>
-  </si>
-  <si>
-    <t>优临微店</t>
-  </si>
-  <si>
-    <t>发现内容</t>
-  </si>
-  <si>
-    <t>速成游戏</t>
-  </si>
-  <si>
-    <t>家庭游戏</t>
   </si>
   <si>
     <t>费用合计</t>
@@ -223,15 +206,11 @@
 </t>
   </si>
   <si>
-    <t>微店</t>
+    <t>Event 事件留言</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>公众号-影片编辑</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号-纪录片编辑</t>
+    <t>小程序 Event/公约</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +222,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥ &quot;#,##0&quot; &quot;;&quot;(¥ &quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="&quot;设计合计：¥&quot;#,##0;&quot;¥-&quot;#,##0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -359,23 +338,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,12 +376,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -868,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,9 +885,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -981,126 +936,123 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1174,24 +1126,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2361,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC42"/>
+  <dimension ref="A1:XFC38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="33.75" customHeight="1"/>
@@ -2389,9 +2323,9 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="26"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="27"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2406,144 +2340,144 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
-      <c r="W1" s="43"/>
+      <c r="W1" s="41"/>
     </row>
     <row r="2" spans="1:23" ht="42.75" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="44"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="42"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="98" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="44"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1">
       <c r="A4" s="7"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="98" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="44"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="42"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="44"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="42"/>
     </row>
     <row r="6" spans="1:23" ht="33" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="44"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1">
       <c r="A7" s="8"/>
@@ -2557,7 +2491,7 @@
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -2566,104 +2500,104 @@
       <c r="H7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="44"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" ht="21.75" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="60" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="44"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="67"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="44"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" ht="21.75" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="68"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="44"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1">
       <c r="A11" s="7"/>
@@ -2671,28 +2605,28 @@
         <v>17</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="23" t="s">
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="44"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" ht="50" customHeight="1">
       <c r="A12" s="7"/>
@@ -2700,82 +2634,82 @@
         <v>19</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="44"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" ht="19.5" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="44"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" ht="27" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="44"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1">
       <c r="A15" s="7"/>
@@ -2789,808 +2723,690 @@
       <c r="E15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="44"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="37" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="66" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="46">
+      <c r="G16" s="22"/>
+      <c r="H16" s="74">
         <v>4000</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="44"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="44" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="41.5" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="42"/>
     </row>
     <row r="19" spans="1:23" ht="64.5" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="32">
+        <v>31</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="31">
         <v>2500</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="44"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="42"/>
     </row>
     <row r="20" spans="1:23" ht="57" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="32">
+        <v>33</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="31">
         <v>2000</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="44"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="42"/>
     </row>
     <row r="21" spans="1:23" ht="47" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="32">
+        <v>35</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="31">
         <v>2000</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="44"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="42"/>
     </row>
     <row r="22" spans="1:23" ht="40" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="31">
+        <v>37</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="30">
         <v>3000</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="44"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="42"/>
     </row>
     <row r="23" spans="1:23" ht="32" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="77">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="75">
         <v>2000</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="44"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="42"/>
     </row>
     <row r="24" spans="1:23" ht="31" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="42"/>
     </row>
     <row r="25" spans="1:23" ht="31" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="42"/>
     </row>
     <row r="26" spans="1:23" ht="31" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="75">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="42"/>
     </row>
     <row r="27" spans="1:23" ht="31" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="73" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="77">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="44"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="42"/>
     </row>
     <row r="28" spans="1:23" ht="31" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="34" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="42"/>
+    </row>
+    <row r="29" spans="1:23" ht="21.75" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53">
+        <f>H26+H23+H22+H21+H20+H19+H16</f>
+        <v>16500</v>
+      </c>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="42"/>
+    </row>
+    <row r="30" spans="1:23" ht="27" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="44"/>
-    </row>
-    <row r="29" spans="1:23" ht="31" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="34" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="42"/>
+    </row>
+    <row r="31" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="44"/>
-    </row>
-    <row r="30" spans="1:23" ht="31" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="34" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="42"/>
+    </row>
+    <row r="32" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38">
-        <v>1000</v>
-      </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="44"/>
-    </row>
-    <row r="31" spans="1:23" ht="31" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="73" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="42"/>
+    </row>
+    <row r="33" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="42"/>
+    </row>
+    <row r="34" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="106" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="103"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="107">
-        <v>1500</v>
-      </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="44"/>
-    </row>
-    <row r="32" spans="1:23" ht="31" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="44"/>
-    </row>
-    <row r="33" spans="1:23" ht="21.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57">
-        <f>H30+H27+H31+H23+H22+H21+H20+H19+H16</f>
-        <v>19000</v>
-      </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="44"/>
-    </row>
-    <row r="34" spans="1:23" ht="27" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="44"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="42"/>
     </row>
     <row r="35" spans="1:23" ht="16.5" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>6</v>
-      </c>
+      <c r="B35" s="68"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="42"/>
+    </row>
+    <row r="36" spans="1:23" ht="37" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="42"/>
+    </row>
+    <row r="37" spans="1:23" ht="64" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="44"/>
-    </row>
-    <row r="36" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="44"/>
-    </row>
-    <row r="37" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="44"/>
-    </row>
-    <row r="38" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="44"/>
-    </row>
-    <row r="39" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="44"/>
-    </row>
-    <row r="40" spans="1:23" ht="37" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="44"/>
-    </row>
-    <row r="41" spans="1:23" ht="64" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="44"/>
-    </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="44"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="42"/>
+    </row>
+    <row r="38" spans="1:23" ht="14" customHeight="1">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="35">
+  <autoFilter ref="B2:H37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="33">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -3603,28 +3419,26 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B37:H37"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D26:D28"/>
     <mergeCell ref="H8:H12"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H31:H33"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="B16:C32"/>
-    <mergeCell ref="C35:D37"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B16:C28"/>
+    <mergeCell ref="C31:D33"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="D16:D18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -3633,7 +3447,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1 H7:H8 H15:H17 H23 H42 E33:H33 H35:H38 H40">
+  <conditionalFormatting sqref="H1 H7:H8 H15:H17 H23 H38 E29:H29 H31:H34 H36">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
